--- a/migrations/data/Deviceinventories.xlsx
+++ b/migrations/data/Deviceinventories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benny New\Bubbl\Website\Bubbl Team code\bubblBackend\migrations\data-migrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devel\Documents\Projects\bubblBackend\migrations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8362E4D-33E8-48E6-9275-DBF3007DCF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013FF6A3-833D-4C48-8B0B-4A508E405E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -668,32 +666,32 @@
   </sheetPr>
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="41" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="41" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -788,7 +786,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('1','Card','1','7bd64b11-e023-46ab-95fa-a6bd3f48fcc0','Made with Recyclable PVC in a Matte finish with Spot UV coating, Stylish and Sleek. Comes in 8 bubbly colours.','Some Device Description','1','','1','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -836,7 +834,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('2','Card','1','44808a9c-5255-48cd-bcd8-4221f17f3d7b','Made with Recyclable PVC in a Matte finish with Spot UV coating, Stylish and Sleek. Comes in 8 bubbly colours.','Some Device Description','1','','2','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -880,11 +878,11 @@
         <v>45029.477673611109</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" ref="R4:R45" si="0">"INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"','"&amp;J4&amp;"','"&amp;K4&amp;"','"&amp;L4&amp;"','"&amp;M4&amp;"','"&amp;TEXT(O5, "yyyy-mm-dd hh:mm:ss")&amp;"','"&amp;TEXT(O5, "yyyy-mm-dd hh:mm:ss")&amp;"');"</f>
+        <f t="shared" ref="R4:R42" si="0">"INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"','"&amp;J4&amp;"','"&amp;K4&amp;"','"&amp;L4&amp;"','"&amp;M4&amp;"','"&amp;TEXT(O5, "yyyy-mm-dd hh:mm:ss")&amp;"','"&amp;TEXT(O5, "yyyy-mm-dd hh:mm:ss")&amp;"');"</f>
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('3','Card','1','58491944-912b-49fe-b6e6-dfee1b78a3d6','Made with Recyclable PVC in a Matte finish with Spot UV coating, Stylish and Sleek. Comes in 8 bubbly colours.','Some Device Description','1','','5','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -932,7 +930,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('4','Card','1','8f4f97d0-8814-48fb-8058-26521ab9bfbe','Made with Recyclable PVC in a Matte finish with Spot UV coating, Stylish and Sleek. Comes in 8 bubbly colours.','Some Device Description','1','','6','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -980,7 +978,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('5','Card','1','775b4f46-d56f-4cd7-8506-aec5132bd2a0','Made with Recyclable PVC in a Matte finish with Spot UV coating, Stylish and Sleek. Comes in 8 bubbly colours.','Some Device Description','1','','7','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('6','Card','1','0bcac1a2-fc48-4ace-9bc5-4426e3b165b4','Made with Recyclable PVC in a Matte finish with Spot UV coating, Stylish and Sleek. Comes in 8 bubbly colours.','Some Device Description','1','','8','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('7','Card','1','d1d47700-4996-4f97-9e75-0da8652d99a7','Made with Recyclable PVC in a Matte finish with Spot UV coating, Stylish and Sleek. Comes in 8 bubbly colours.','Some Device Description','1','','9','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('8','Card','1','66a51cc1-6475-4e2d-8559-5cc3096cd15a','Made with Recyclable PVC in a Matte finish with Spot UV coating, Stylish and Sleek. Comes in 8 bubbly colours.','Some Device Description','1','','10','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1172,7 +1170,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('9','Socket','2','dc2a1472-b6f1-46de-a3e7-849032667c6a','Designed for durability, our Bubbl pops come in a smooth resin finish and are very easy to install.','Some Device Description','1','','1','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('10','Socket','2','443d2392-dd06-48fa-b619-89bd165141f9','Designed for durability, our Bubbl pops come in a smooth resin finish and are very easy to install.','Some Device Description','1','','2','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('11','Socket','2','3eda3dfc-9c2f-40f0-ba67-bda7b240ba71','Designed for durability, our Bubbl pops come in a smooth resin finish and are very easy to install.','Some Device Description','1','','5','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1316,7 +1314,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('12','Socket','2','b2d27afd-27d5-428a-b81e-7c7bbe0f8386','Designed for durability, our Bubbl pops come in a smooth resin finish and are very easy to install.','Some Device Description','1','','6','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1364,7 +1362,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('13','Socket','2','babfe215-7f73-449c-918b-6f744c0bf958','Designed for durability, our Bubbl pops come in a smooth resin finish and are very easy to install.','Some Device Description','1','','7','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1412,7 +1410,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('14','Socket','2','dacd454f-65a9-4303-8735-a40694daeada','Designed for durability, our Bubbl pops come in a smooth resin finish and are very easy to install.','Some Device Description','1','','8','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1460,7 +1458,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('15','Socket','2','e13f18a1-8c0b-4b6e-b482-3f09c53a4ea5','Designed for durability, our Bubbl pops come in a smooth resin finish and are very easy to install.','Some Device Description','1','','9','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('16','Socket','2','5b3d457c-734b-4ae1-8476-2ff4f32a997d','Designed for durability, our Bubbl pops come in a smooth resin finish and are very easy to install.','Some Device Description','1','','10','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('17','Tile','3','1f8d4e2a-06a4-4e6c-9b18-3dc0fd6e599f','Make an impact with minimal presence. Our tiles are seamlessly think and fit perfectly on any phone case.','Some Device Description','1','','1','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('18','Tile','3','7f3d5b8a-0c73-4675-bb9d-efb8e9c8347d','Make an impact with minimal presence. Our tiles are seamlessly think and fit perfectly on any phone case.','Some Device Description','1','','2','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('19','Tile','3','b9e5412f-7d91-4147-b99e-1a6c2a509c28','Make an impact with minimal presence. Our tiles are seamlessly think and fit perfectly on any phone case.','Some Device Description','1','','5','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1700,7 +1698,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('20','Tile','3','f34d8c2b-91ae-4a91-b4df-774b7b9f7f29','Make an impact with minimal presence. Our tiles are seamlessly think and fit perfectly on any phone case.','Some Device Description','1','','6','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1748,7 +1746,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('21','Tile','3','a54f0b62-1c2e-43a8-9241-0d794763c6d3','Make an impact with minimal presence. Our tiles are seamlessly think and fit perfectly on any phone case.','Some Device Description','1','','7','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1796,7 +1794,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('22','Tile','3','c83d17b9-59a5-486b-870d-f4e8bd05bff2','Make an impact with minimal presence. Our tiles are seamlessly think and fit perfectly on any phone case.','Some Device Description','1','','8','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('23','Tile','3','3a0e4871-48d3-4c98-8a3b-118bf915e29d','Make an impact with minimal presence. Our tiles are seamlessly think and fit perfectly on any phone case.','Some Device Description','1','','9','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1892,7 +1890,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('24','Tile','3','dca78451-3a3f-4b85-98f1-9f7b741ddf9b','Make an impact with minimal presence. Our tiles are seamlessly think and fit perfectly on any phone case.','Some Device Description','1','','10','Some Product Details','699','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1940,7 +1938,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('25','Bundle Devices','4','99e21c46-8957-4383-9b28-36cf4780ebeb','If you want to get more than just one bubbl, don’t worry we have fan-favorite bundles at great deals. Making new connections has never been easier!','Some Device Description','1','','1','Some Product Details','1499','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1988,7 +1986,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('26','Bundle Devices','4','51f48765-65cf-40a2-925d-f3e4a28d40eb','If you want to get more than just one bubbl, don’t worry we have fan-favorite bundles at great deals. Making new connections has never been easier!','Some Device Description','1','','2','Some Product Details','1499','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2036,7 +2034,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('27','Bundle Devices','4','2d65a8b3-f4cf-46d1-95b9-7f36e5b021ed','If you want to get more than just one bubbl, don’t worry we have fan-favorite bundles at great deals. Making new connections has never been easier!','Some Device Description','1','','5','Some Product Details','1499','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2084,7 +2082,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('28','Bundle Devices','4','9e3a6b75-35bd-448e-ae2a-1f75b4d0c3a8','If you want to get more than just one bubbl, don’t worry we have fan-favorite bundles at great deals. Making new connections has never been easier!','Some Device Description','1','','6','Some Product Details','1499','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('29','Bundle Devices','4','f8d245ae-4c61-4fa5-8563-6e7c92d9b4a5','If you want to get more than just one bubbl, don’t worry we have fan-favorite bundles at great deals. Making new connections has never been easier!','Some Device Description','1','','7','Some Product Details','1499','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('30','Bundle Devices','4','04ae3d12-951b-471c-a63e-24db3e2d467f','If you want to get more than just one bubbl, don’t worry we have fan-favorite bundles at great deals. Making new connections has never been easier!','Some Device Description','1','','8','Some Product Details','1499','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('31','Bundle Devices','4','a1e6d5c9-18f5-4f3a-9376-b05c27a8495d','If you want to get more than just one bubbl, don’t worry we have fan-favorite bundles at great deals. Making new connections has never been easier!','Some Device Description','1','','9','Some Product Details','1499','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('32','Bundle Devices','4','b6c2849e-7f0d-4c52-b8a5-6d9f843b120f','If you want to get more than just one bubbl, don’t worry we have fan-favorite bundles at great deals. Making new connections has never been easier!','Some Device Description','1','','10','Some Product Details','1499','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2305,7 +2303,7 @@
         <v>19</v>
       </c>
       <c r="K34" s="7">
-        <v>1000</v>
+        <v>1299</v>
       </c>
       <c r="L34" s="7">
         <v>0</v>
@@ -2321,10 +2319,10 @@
       </c>
       <c r="R34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('33','Full Custom','5','738a4e6d-3c91-42a8-9835-f3b1d62a8059','If you want to get more than just one bubbl, don’t worry we have a fan favourite bundle at great deals. Making new connections has never been easier!','Some Device Description','1','','3','Some Product Details','1000','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('33','Full Custom','5','738a4e6d-3c91-42a8-9835-f3b1d62a8059','If you want to get more than just one bubbl, don’t worry we have a fan favourite bundle at great deals. Making new connections has never been easier!','Some Device Description','1','','3','Some Product Details','1299','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2375,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2423,7 +2421,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('35','Name Custom','6','c475a2e1-9134-46b5-80ad-52d48375af60','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','1','2','','Some Product Details','1200','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2471,7 +2469,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('36','Name Custom','6','a87d1e92-5437-4978-8f51-b60e4287f3c8','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','1','3','','Some Product Details','1200','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2519,7 +2517,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('37','Name Custom','6','dca84f12-9e3b-4d86-94d1-728fb1a6495f','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','1','4','','Some Product Details','1200','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2567,7 +2565,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('38','Name Custom','6','79b1e6d4-5c3a-4a2d-98f3-6b749e2d85a1','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','1','5','','Some Product Details','1200','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2615,7 +2613,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('39','Name Custom','6','f3487b1d-3a2e-40c9-a56e-5f92b47a81d6','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','1','6','','Some Product Details','1200','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('40','Name Custom','6','b23d9a74-5f16-4e3a-92d5-8c1f74a5b603','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','1','7','','Some Product Details','1200','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2711,7 +2709,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('41','Name Custom','6','6f34e291-48d3-47b5-9a8c-5f927b1d46a3','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','1','8','','Some Product Details','1200','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('42','Name Custom','6','3c49e275-6a1d-42a5-b81f-7f32d48c95a7','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','2','1','','Some Product Details','1999','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('43','Name Custom','6','918a3d46-5b27-4c9e-83d1-a5f7b6c42e0d','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','2','7','','Some Product Details','1999','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2836,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="K45" s="7">
-        <v>1999</v>
+        <v>999</v>
       </c>
       <c r="L45" s="7">
         <v>0</v>
@@ -2852,7 +2850,7 @@
       </c>
       <c r="R45" t="str">
         <f>"INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('"&amp;A45&amp;"','"&amp;B45&amp;"','"&amp;C45&amp;"','"&amp;D45&amp;"','"&amp;E45&amp;"','"&amp;F45&amp;"','"&amp;G45&amp;"','"&amp;H45&amp;"','"&amp;I45&amp;"','"&amp;J45&amp;"','"&amp;K45&amp;"','"&amp;L45&amp;"','"&amp;M45&amp;"','"&amp;TEXT(O45, "yyyy-mm-dd hh:mm:ss")&amp;"','"&amp;TEXT(O45, "yyyy-mm-dd hh:mm:ss")&amp;"');"</f>
-        <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('44','Name Custom','6','f87a1c35-2e9d-472b-b4d1-5f92c3e84765','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','3','1','','Some Product Details','1999','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
+        <v>INSERT INTO bubbldb.deviceinventories (id, name, deviceTypeId, productId, shortDescription, deviceDescription, materialTypeId, patternId, colorId, productDetails, price, discountPercentage, availability, createdAt, updatedAt) VALUES ('44','Name Custom','6','f87a1c35-2e9d-472b-b4d1-5f92c3e84765','Whether you’re a startup or an enterprise business, bubbl has a plan that’s perfect for you. Empower your company with the future of networking today!','Some Device Description','3','1','','Some Product Details','999','0','1','2023-04-13 11:27:51','2023-04-13 11:27:51');</v>
       </c>
     </row>
   </sheetData>
